--- a/biology/Zoologie/Cyartonema_elegans/Cyartonema_elegans.xlsx
+++ b/biology/Zoologie/Cyartonema_elegans/Cyartonema_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyartonema elegans est une espèce de nématodes chromadorés de la famille des Cyartonematidae (ordre des Desmoscolecida). 
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Cyartonema elegans a été décrite en 1977 par Kamath Jayasree (d) et Richard M. Warwick (d)[2].
-Le NCBI considère que ce taxon a un classement incertain (incertae sedis) dans l'ordre des Monhysterida[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cyartonema elegans a été décrite en 1977 par Kamath Jayasree (d) et Richard M. Warwick (d).
+Le NCBI considère que ce taxon a un classement incertain (incertae sedis) dans l'ordre des Monhysterida.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyartonema elegans est un nématode libre dont le spécimen type a été découvert sur une plage de sable polluée du Firth of Clyde, en Écosse.
 </t>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) K. Jayasree et R. M. Warwick, « Free-living marine nematodes of a polluted sandy beach in the Firth of Clyde, Scotland », Journal of Natural History, Taylor &amp; Francis, vol. 11, no 3,‎ juin 1977, p. 289-302 (ISSN 0022-2933 et 1464-5262, DOI 10.1080/00222937700770211)</t>
         </is>
